--- a/7a_504_FOIA Data Dictionary.xlsx
+++ b/7a_504_FOIA Data Dictionary.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fjgalliano/Desktop/NU_Data_Class/MachineLearning_SBA/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BD50F6-B72D-534F-AED4-DB5FA343710A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="21120" windowHeight="14535" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="21120" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7(a) Data Dictionary" sheetId="4" r:id="rId1"/>
@@ -325,7 +331,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -408,6 +414,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -455,7 +464,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -488,9 +497,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -523,6 +549,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -698,20 +741,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A29" sqref="A29:B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
@@ -719,7 +762,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -727,7 +770,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -735,7 +778,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -743,7 +786,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -751,7 +794,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -759,7 +802,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -767,7 +810,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -775,7 +818,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -783,7 +826,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -791,7 +834,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -799,7 +842,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -807,7 +850,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -815,7 +858,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -823,7 +866,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -831,7 +874,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -839,7 +882,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>85</v>
       </c>
@@ -847,7 +890,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="315" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="315" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
@@ -855,7 +898,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>16</v>
       </c>
@@ -863,7 +906,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
@@ -871,7 +914,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>18</v>
       </c>
@@ -879,7 +922,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
@@ -887,7 +930,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>20</v>
       </c>
@@ -895,7 +938,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>21</v>
       </c>
@@ -903,7 +946,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>22</v>
       </c>
@@ -911,7 +954,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>23</v>
       </c>
@@ -919,7 +962,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>24</v>
       </c>
@@ -927,7 +970,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>25</v>
       </c>
@@ -935,7 +978,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="105" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>26</v>
       </c>
@@ -943,7 +986,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>27</v>
       </c>
@@ -951,7 +994,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>28</v>
       </c>
@@ -959,7 +1002,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>29</v>
       </c>
@@ -967,7 +1010,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>82</v>
       </c>
@@ -982,18 +1025,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="73.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
@@ -1001,7 +1046,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1009,7 +1054,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1017,7 +1062,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1025,7 +1070,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1033,7 +1078,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1041,7 +1086,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1049,7 +1094,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>30</v>
       </c>
@@ -1057,7 +1102,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>31</v>
       </c>
@@ -1065,7 +1110,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
@@ -1073,7 +1118,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
@@ -1081,7 +1126,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
@@ -1089,7 +1134,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
@@ -1097,7 +1142,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
@@ -1105,7 +1150,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
@@ -1113,7 +1158,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>38</v>
       </c>
@@ -1121,7 +1166,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
@@ -1129,7 +1174,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -1137,7 +1182,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>14</v>
       </c>
@@ -1145,7 +1190,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>85</v>
       </c>
@@ -1153,7 +1198,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="105" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -1161,7 +1206,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>16</v>
       </c>
@@ -1169,7 +1214,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -1177,7 +1222,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -1185,7 +1230,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
@@ -1193,7 +1238,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -1201,7 +1246,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -1209,7 +1254,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>22</v>
       </c>
@@ -1217,7 +1262,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>23</v>
       </c>
@@ -1225,7 +1270,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>24</v>
       </c>
@@ -1233,7 +1278,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>25</v>
       </c>
@@ -1241,7 +1286,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="105" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>26</v>
       </c>
@@ -1249,7 +1294,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>27</v>
       </c>
@@ -1257,7 +1302,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>28</v>
       </c>
@@ -1265,7 +1310,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>83</v>
       </c>
